--- a/doc/huangli选股.xlsx
+++ b/doc/huangli选股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="组合1-成长" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>目前涨幅</t>
   </si>
@@ -30,42 +30,96 @@
     <t>名称</t>
   </si>
   <si>
-    <t xml:space="preserve"> 福莱特</t>
+    <t>板块</t>
+  </si>
+  <si>
+    <t>规模</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 福莱特(玻璃)</t>
+  </si>
+  <si>
+    <t>次新股/新能源</t>
+  </si>
+  <si>
+    <t>中盘</t>
   </si>
   <si>
     <t xml:space="preserve"> 威派格</t>
   </si>
   <si>
+    <t>次新股/环保/水务</t>
+  </si>
+  <si>
+    <t>小盘</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 天风证券</t>
   </si>
   <si>
+    <t>次新股/证券</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 华林证券</t>
   </si>
   <si>
     <t xml:space="preserve"> 贵州燃气</t>
   </si>
   <si>
+    <t>天然气</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 新疆交建</t>
   </si>
   <si>
+    <t>次新股/土木工程建筑业</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 至纯科技</t>
   </si>
   <si>
+    <t>制造业/半导体</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 贝通信</t>
   </si>
   <si>
+    <t>次新股/5G</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 长城军工</t>
   </si>
   <si>
+    <t>次新股/航天军工</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 新乳业</t>
   </si>
   <si>
+    <t>次新股/乳业</t>
+  </si>
+  <si>
     <t>总值</t>
   </si>
   <si>
     <t>利润率</t>
   </si>
   <si>
+    <t>半导体/通讯/新能源/证券</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>食品/军工/传统能源</t>
+  </si>
+  <si>
+    <t>土木建设</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>风险</t>
   </si>
   <si>
@@ -75,13 +129,7 @@
     <t>2019.5.31</t>
   </si>
   <si>
-    <t>2019.6.23</t>
-  </si>
-  <si>
-    <t>2019.6.30</t>
-  </si>
-  <si>
-    <t>2019.7.31</t>
+    <t>平权</t>
   </si>
   <si>
     <t>掌阅科技</t>
@@ -93,7 +141,7 @@
     <t>海天精工</t>
   </si>
   <si>
-    <t>\002785</t>
+    <t>002785</t>
   </si>
   <si>
     <t>万里石</t>
@@ -168,11 +216,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,7 +258,148 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0A227A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -224,58 +413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -283,84 +420,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,12 +448,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,43 +496,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,127 +658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +774,83 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,81 +872,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,152 +885,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,19 +1058,64 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -1316,36 +1464,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="17.125" customWidth="1"/>
-    <col min="15" max="15" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="12.25" customWidth="1"/>
-    <col min="17" max="17" width="13.875" customWidth="1"/>
-    <col min="18" max="18" width="14.875" customWidth="1"/>
-    <col min="19" max="19" width="13.375" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="13.375" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1358,57 +1507,48 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19">
         <v>43608</v>
       </c>
-      <c r="F1" s="5">
+      <c r="H1" s="5">
         <v>43616</v>
       </c>
-      <c r="G1" s="5">
-        <v>43624</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43632</v>
-      </c>
-      <c r="I1" s="11">
-        <v>43639</v>
-      </c>
-      <c r="J1" s="11">
-        <v>43669</v>
+      <c r="I1" s="5">
+        <v>43717</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43761</v>
       </c>
       <c r="K1" s="5">
-        <v>43700</v>
+        <v>43792</v>
       </c>
       <c r="L1" s="5">
-        <v>43731</v>
+        <v>43822</v>
       </c>
       <c r="M1" s="5">
-        <v>43761</v>
+        <v>43853</v>
       </c>
       <c r="N1" s="5">
-        <v>43792</v>
+        <v>43884</v>
       </c>
       <c r="O1" s="5">
-        <v>43822</v>
+        <v>43913</v>
       </c>
       <c r="P1" s="5">
-        <v>43853</v>
+        <v>43944</v>
       </c>
       <c r="Q1" s="5">
-        <v>43884</v>
-      </c>
-      <c r="R1" s="5">
-        <v>43913</v>
-      </c>
-      <c r="S1" s="5">
-        <v>43944</v>
-      </c>
-      <c r="T1" s="5">
         <v>43974</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="12">
+    <row r="2" spans="1:17">
+      <c r="A2" s="20">
         <v>22.67</v>
       </c>
       <c r="B2" s="9">
@@ -1418,18 +1558,24 @@
         <f>"601865"</f>
         <v>601865</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9">
         <v>9.97</v>
       </c>
-      <c r="F2" s="9">
+      <c r="H2" s="9">
         <v>12.23</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="12">
+        <v>11.18</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1438,12 +1584,9 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="12">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="20">
         <v>18.52</v>
       </c>
       <c r="B3" s="9">
@@ -1454,17 +1597,23 @@
         <v>603956</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9">
         <v>18.11</v>
       </c>
-      <c r="F3" s="9">
+      <c r="H3" s="9">
         <v>22.52</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>19.13</v>
+      </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -1473,12 +1622,9 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="12">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="20">
         <v>17.13</v>
       </c>
       <c r="B4" s="9">
@@ -1488,18 +1634,24 @@
         <f>"601162"</f>
         <v>601162</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9">
         <v>7.84</v>
       </c>
-      <c r="F4" s="9">
+      <c r="H4" s="9">
         <v>9.23</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="12">
+        <v>9.52</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -1508,12 +1660,9 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="12">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="20">
         <v>14.12</v>
       </c>
       <c r="B5" s="9">
@@ -1523,18 +1672,24 @@
         <f>"002945"</f>
         <v>002945</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9">
         <v>10.4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="H5" s="9">
         <v>11.8</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="12">
+        <v>17.13</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1543,11 +1698,8 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>8.38</v>
       </c>
@@ -1559,17 +1711,23 @@
         <v>600903</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9">
+      <c r="G6" s="9">
         <v>12.67</v>
       </c>
-      <c r="F6" s="9">
+      <c r="H6" s="9">
         <v>13.7</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9">
+        <v>13.41</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1578,11 +1736,8 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>12.47</v>
       </c>
@@ -1593,18 +1748,24 @@
         <f>"002941"</f>
         <v>002941</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9">
         <v>23.52</v>
       </c>
-      <c r="F7" s="9">
+      <c r="H7" s="9">
         <v>26.6</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="10">
+        <v>25.57</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1613,11 +1774,8 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>8.69</v>
       </c>
@@ -1628,18 +1786,24 @@
         <f>"603690"</f>
         <v>603690</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9">
         <v>18.78</v>
       </c>
-      <c r="F8" s="9">
+      <c r="H8" s="9">
         <v>19.89</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="12">
+        <v>25.52</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1648,12 +1812,9 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="13">
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="26">
         <v>31.9</v>
       </c>
       <c r="B9" s="9">
@@ -1663,18 +1824,24 @@
         <f>"603220"</f>
         <v>603220</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="9">
         <v>25.16</v>
       </c>
-      <c r="F9" s="9">
+      <c r="H9" s="9">
         <v>32.95</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="12">
+        <v>31.25</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1683,12 +1850,9 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="14">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="27">
         <v>13.96</v>
       </c>
       <c r="B10" s="9">
@@ -1699,17 +1863,23 @@
         <v>601606</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="9">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="9">
         <v>14.81</v>
       </c>
-      <c r="F10" s="9">
+      <c r="H10" s="9">
         <v>16.57</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9">
+        <v>15.78</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1718,12 +1888,9 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="14">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="27">
         <v>14.71</v>
       </c>
       <c r="B11" s="9">
@@ -1734,17 +1901,23 @@
         <v>002946</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9">
         <v>13.45</v>
       </c>
-      <c r="F11" s="9">
+      <c r="H11" s="9">
         <v>15.83</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9">
+        <v>14.05</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -1753,30 +1926,56 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <f>SUM(E2:E11)</f>
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
         <v>154.71</v>
       </c>
-      <c r="F12">
-        <f>SUM(F2:F11)</f>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
         <v>181.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="I12">
+        <f>SUM(I2:I11)</f>
+        <v>182.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <f>F12/E12-1</f>
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <f>H12/$G12-1</f>
         <v>0.171999224355246</v>
+      </c>
+      <c r="I13">
+        <f>I12/$G12-1</f>
+        <v>0.179884946028052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1786,12 +1985,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1800,17 +1999,13 @@
     <col min="2" max="2" width="21.625" style="9" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="9" customWidth="1"/>
     <col min="4" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="20.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="9" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="9"/>
+    <col min="5" max="7" width="20.375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="15.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="9"/>
+    <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="2:11">
+    <row r="1" ht="13.5" spans="2:10">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1818,31 +2013,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43624</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43632</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" spans="1:10">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1850,139 +2042,195 @@
         <v>603533</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E2" s="8">
         <v>0.921455427447249</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="9">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" spans="1:6">
+      <c r="I2" s="9">
+        <v>15.9</v>
+      </c>
+      <c r="J2" s="18">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="1:10">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>601882</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
+      <c r="C3" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8">
         <v>0.720785155900275</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="9">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" spans="1:6">
+      <c r="I3" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="J3" s="9">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="1:10">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
+      <c r="B4" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8">
         <v>0.492235844565569</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="9">
         <v>10.01</v>
       </c>
-    </row>
-    <row r="5" ht="13.5" spans="1:6">
+      <c r="I4" s="9">
+        <v>10.01</v>
+      </c>
+      <c r="J4" s="9">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="1:10">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>603595</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>27</v>
+      <c r="C5" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8">
         <v>0.452690787595063</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="9">
         <v>23.02</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" spans="1:6">
+      <c r="I5" s="9">
+        <v>23.02</v>
+      </c>
+      <c r="J5" s="12">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" spans="1:10">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>603663</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>28</v>
+      <c r="C6" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E6" s="8">
         <v>0.423790049636684</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="9">
         <v>17.06</v>
       </c>
-    </row>
-    <row r="7" ht="13.5" spans="1:6">
+      <c r="I6" s="9">
+        <v>17.06</v>
+      </c>
+      <c r="J6" s="10">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:10">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>603159</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
+      <c r="C7" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8">
         <v>0.384802001930529</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="9">
         <v>20.62</v>
       </c>
-    </row>
-    <row r="8" ht="13.5" spans="1:6">
+      <c r="I7" s="9">
+        <v>14.61</v>
+      </c>
+      <c r="J7" s="10">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" spans="1:10">
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
+      <c r="B8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8">
         <v>0.381598350509561</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="9">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="9" ht="13.5" spans="1:6">
+      <c r="I8" s="9">
+        <v>19.3</v>
+      </c>
+      <c r="J8" s="12">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" spans="1:10">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1990,77 +2238,108 @@
         <v>603779</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E9" s="8">
         <v>0.38019523049402</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="9">
         <v>13.49</v>
       </c>
-    </row>
-    <row r="10" ht="13.5" spans="1:6">
+      <c r="I9" s="9">
+        <v>13.49</v>
+      </c>
+      <c r="J9" s="9">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:10">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>601212</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
+      <c r="C10" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E10" s="8">
         <v>0.372695251212156</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="9">
         <v>4.27</v>
       </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:6">
+      <c r="I10" s="9">
+        <v>4.27</v>
+      </c>
+      <c r="J10" s="9">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:10">
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>603903</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
+      <c r="C11" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7">
         <v>0.3395</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="9">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:9">
+      <c r="I11" s="9">
+        <v>14.17</v>
+      </c>
+      <c r="J11" s="10">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="1:10">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12">
-        <f>SUM(F2:F11)</f>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12">
+        <f t="shared" ref="H12:J12" si="0">SUM(H2:H11)</f>
         <v>151.67</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:9">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>139.58</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>147.68</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" spans="1:10">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -2070,6 +2349,10 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
+      <c r="J13" s="9">
+        <f>J12/$I12-1</f>
+        <v>0.0580312365668434</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2079,12 +2362,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2106,39 +2389,31 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5">
-        <v>43624</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43632</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>43717</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" ht="14.25" spans="2:8">
       <c r="B2" s="6">
         <v>601865</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E2" s="8">
         <v>11.2855489417989</v>
@@ -2146,7 +2421,9 @@
       <c r="F2" s="9">
         <v>12.24</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="10">
+        <v>11.18</v>
+      </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" ht="14.25" spans="2:8">
@@ -2154,10 +2431,10 @@
         <v>603956</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8">
         <v>6.49177210470058</v>
@@ -2165,7 +2442,9 @@
       <c r="F3" s="9">
         <v>22.25</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="10">
+        <v>19.13</v>
+      </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" ht="14.25" spans="2:8">
@@ -2173,10 +2452,10 @@
         <v>603739</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8">
         <v>4.46009745259915</v>
@@ -2184,7 +2463,9 @@
       <c r="F4" s="9">
         <v>38.87</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="10">
+        <v>31.85</v>
+      </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" ht="14.25" spans="2:8">
@@ -2192,10 +2473,10 @@
         <v>601162</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8">
         <v>4.19997577519379</v>
@@ -2203,7 +2484,9 @@
       <c r="F5" s="9">
         <v>9.23</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="11">
+        <v>9.52</v>
+      </c>
       <c r="H5" s="9"/>
     </row>
     <row r="6" ht="14.25" spans="2:8">
@@ -2211,10 +2494,10 @@
         <v>603220</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="8">
         <v>3.54981806747226</v>
@@ -2222,18 +2505,20 @@
       <c r="F6" s="9">
         <v>32.95</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="10">
+        <v>31.25</v>
+      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" ht="14.25" spans="2:8">
-      <c r="B7" s="15" t="s">
-        <v>40</v>
+      <c r="B7" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8">
         <v>3.44536912367147</v>
@@ -2241,18 +2526,20 @@
       <c r="F7" s="9">
         <v>11.8</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="12">
+        <v>17.13</v>
+      </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" ht="14.25" spans="2:8">
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8">
         <v>3.11942855941468</v>
@@ -2260,7 +2547,9 @@
       <c r="F8" s="9">
         <v>26.6</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="10">
+        <v>25.57</v>
+      </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" ht="14.25" spans="2:8">
@@ -2268,10 +2557,10 @@
         <v>601606</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E9" s="8">
         <v>3.00339065995525</v>
@@ -2279,18 +2568,20 @@
       <c r="F9" s="9">
         <v>16.58</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="10">
+        <v>15.78</v>
+      </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" ht="14.25" spans="2:8">
-      <c r="B10" s="15" t="s">
-        <v>45</v>
+      <c r="B10" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E10" s="8">
         <v>2.9447983014862</v>
@@ -2298,7 +2589,9 @@
       <c r="F10" s="9">
         <v>15.84</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="10">
+        <v>14.05</v>
+      </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" ht="14.25" spans="2:8">
@@ -2306,10 +2599,10 @@
         <v>603690</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E11" s="8">
         <v>2.93848203875409</v>
@@ -2317,23 +2610,32 @@
       <c r="F11" s="9">
         <v>19.89</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="12">
+        <v>25.52</v>
+      </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <f>SUM(F2:F11)</f>
         <v>206.25</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>200.98</v>
+      </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <f>G12/$F12-1</f>
+        <v>-0.0255515151515151</v>
       </c>
     </row>
   </sheetData>

--- a/doc/huangli选股.xlsx
+++ b/doc/huangli选股.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="组合1-成长" sheetId="1" r:id="rId1"/>
     <sheet name="组合2-群体" sheetId="2" r:id="rId2"/>
     <sheet name="组合3-成长" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>目前涨幅</t>
   </si>
@@ -208,19 +209,38 @@
   </si>
   <si>
     <t>至纯科技</t>
+  </si>
+  <si>
+    <t>深南电路</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>汇顶科技</t>
+  </si>
+  <si>
+    <t>金域医学</t>
+  </si>
+  <si>
+    <t>长春高新</t>
+  </si>
+  <si>
+    <t>贵州燃气</t>
+  </si>
+  <si>
+    <t>10月推荐</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +253,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -254,7 +274,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -290,121 +310,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,21 +318,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,13 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,19 +369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,186 +393,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -773,264 +496,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1121,61 +593,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1464,12 +895,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1568,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="9">
-        <v>9.97</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="H2" s="9">
         <v>12.23</v>
@@ -1701,7 +1132,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>8.38</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="B6" s="9">
         <v>5</v>
@@ -1837,7 +1268,7 @@
         <v>25.16</v>
       </c>
       <c r="H9" s="9">
-        <v>32.95</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="I9" s="12">
         <v>31.25</v>
@@ -1927,7 +1358,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1944,13 +1375,13 @@
         <v>182.54</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="H13">
         <f>H12/$G12-1</f>
-        <v>0.171999224355246</v>
+        <v>0.17199922435524601</v>
       </c>
       <c r="I13">
         <f>I12/$G12-1</f>
@@ -1965,7 +1396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1979,17 +1410,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2005,7 +1435,7 @@
     <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="2:10">
+    <row r="1" spans="1:10" ht="12.75">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2034,7 +1464,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:10">
+    <row r="2" spans="1:10" ht="12.75">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2048,7 +1478,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="8">
-        <v>0.921455427447249</v>
+        <v>0.92145542744724895</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -2062,7 +1492,7 @@
         <v>15.79</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="1:10">
+    <row r="3" spans="1:10" ht="12.75">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2076,7 +1506,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="8">
-        <v>0.720785155900275</v>
+        <v>0.72078515590027503</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -2090,7 +1520,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:10">
+    <row r="4" spans="1:10" ht="12.75">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2104,7 +1534,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="8">
-        <v>0.492235844565569</v>
+        <v>0.49223584456556901</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -2118,7 +1548,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:10">
+    <row r="5" spans="1:10" ht="12.75">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2132,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="8">
-        <v>0.452690787595063</v>
+        <v>0.45269078759506298</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -2146,7 +1576,7 @@
         <v>28.68</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:10">
+    <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2160,21 +1590,21 @@
         <v>39</v>
       </c>
       <c r="E6" s="8">
-        <v>0.423790049636684</v>
+        <v>0.42379004963668399</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="9">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="I6" s="9">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="J6" s="10">
         <v>14.74</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:10">
+    <row r="7" spans="1:10" ht="12.75">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2188,7 +1618,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="8">
-        <v>0.384802001930529</v>
+        <v>0.38480200193052899</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -2202,7 +1632,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="8" ht="13.5" spans="1:10">
+    <row r="8" spans="1:10" ht="12.75">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2216,7 +1646,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="8">
-        <v>0.381598350509561</v>
+        <v>0.38159835050956098</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -2230,7 +1660,7 @@
         <v>23.18</v>
       </c>
     </row>
-    <row r="9" ht="13.5" spans="1:10">
+    <row r="9" spans="1:10" ht="12.75">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2244,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="8">
-        <v>0.38019523049402</v>
+        <v>0.38019523049401999</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -2258,7 +1688,7 @@
         <v>14.36</v>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:10">
+    <row r="10" spans="1:10" ht="12.75">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2272,21 +1702,21 @@
         <v>39</v>
       </c>
       <c r="E10" s="8">
-        <v>0.372695251212156</v>
+        <v>0.37269525121215602</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="9">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="I10" s="9">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J10" s="9">
         <v>4.49</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:10">
+    <row r="11" spans="1:10" ht="12.75">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2300,7 +1730,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="7">
-        <v>0.3395</v>
+        <v>0.33950000000000002</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2314,7 +1744,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:10">
+    <row r="12" spans="1:10" ht="13.5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2326,18 +1756,18 @@
       <c r="G12"/>
       <c r="H12">
         <f t="shared" ref="H12:J12" si="0">SUM(H2:H11)</f>
-        <v>151.67</v>
+        <v>151.66999999999999</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>139.58</v>
+        <v>139.58000000000001</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
         <v>147.68</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:10">
+    <row r="13" spans="1:10" ht="13.5">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2351,19 +1781,18 @@
       <c r="I13"/>
       <c r="J13" s="9">
         <f>J12/$I12-1</f>
-        <v>0.0580312365668434</v>
+        <v>5.8031236566843399E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2381,7 +1810,7 @@
     <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2405,7 +1834,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" ht="14.25" spans="2:8">
+    <row r="2" spans="1:11">
       <c r="B2" s="6">
         <v>601865</v>
       </c>
@@ -2416,7 +1845,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="8">
-        <v>11.2855489417989</v>
+        <v>11.285548941798901</v>
       </c>
       <c r="F2" s="9">
         <v>12.24</v>
@@ -2426,7 +1855,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="14.25" spans="2:8">
+    <row r="3" spans="1:11">
       <c r="B3" s="6">
         <v>603956</v>
       </c>
@@ -2437,7 +1866,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="8">
-        <v>6.49177210470058</v>
+        <v>6.4917721047005799</v>
       </c>
       <c r="F3" s="9">
         <v>22.25</v>
@@ -2447,7 +1876,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" ht="14.25" spans="2:8">
+    <row r="4" spans="1:11">
       <c r="B4" s="6">
         <v>603739</v>
       </c>
@@ -2458,17 +1887,17 @@
         <v>39</v>
       </c>
       <c r="E4" s="8">
-        <v>4.46009745259915</v>
+        <v>4.4600974525991504</v>
       </c>
       <c r="F4" s="9">
-        <v>38.87</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="G4" s="10">
         <v>31.85</v>
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" ht="14.25" spans="2:8">
+    <row r="5" spans="1:11">
       <c r="B5" s="6">
         <v>601162</v>
       </c>
@@ -2479,7 +1908,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="8">
-        <v>4.19997577519379</v>
+        <v>4.1999757751937903</v>
       </c>
       <c r="F5" s="9">
         <v>9.23</v>
@@ -2489,7 +1918,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" ht="14.25" spans="2:8">
+    <row r="6" spans="1:11">
       <c r="B6" s="6">
         <v>603220</v>
       </c>
@@ -2500,17 +1929,17 @@
         <v>39</v>
       </c>
       <c r="E6" s="8">
-        <v>3.54981806747226</v>
+        <v>3.5498180674722599</v>
       </c>
       <c r="F6" s="9">
-        <v>32.95</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="G6" s="10">
         <v>31.25</v>
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="14.25" spans="2:8">
+    <row r="7" spans="1:11">
       <c r="B7" s="30" t="s">
         <v>56</v>
       </c>
@@ -2521,7 +1950,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="8">
-        <v>3.44536912367147</v>
+        <v>3.4453691236714699</v>
       </c>
       <c r="F7" s="9">
         <v>11.8</v>
@@ -2531,7 +1960,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" ht="14.25" spans="2:8">
+    <row r="8" spans="1:11">
       <c r="B8" s="6" t="s">
         <v>58</v>
       </c>
@@ -2552,7 +1981,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" ht="14.25" spans="2:8">
+    <row r="9" spans="1:11">
       <c r="B9" s="6">
         <v>601606</v>
       </c>
@@ -2566,14 +1995,14 @@
         <v>3.00339065995525</v>
       </c>
       <c r="F9" s="9">
-        <v>16.58</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="G9" s="10">
         <v>15.78</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" ht="14.25" spans="2:8">
+    <row r="10" spans="1:11">
       <c r="B10" s="30" t="s">
         <v>61</v>
       </c>
@@ -2594,7 +2023,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="14.25" spans="2:8">
+    <row r="11" spans="1:11">
       <c r="B11" s="6">
         <v>603690</v>
       </c>
@@ -2605,7 +2034,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="8">
-        <v>2.93848203875409</v>
+        <v>2.9384820387540902</v>
       </c>
       <c r="F11" s="9">
         <v>19.89</v>
@@ -2615,7 +2044,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2629,17 +2058,192 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="G13">
         <f>G12/$F12-1</f>
-        <v>-0.0255515151515151</v>
+        <v>-2.5551515151515099E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="27">
+      <c r="B3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="32">
+        <v>601865</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="32">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="32">
+        <v>603690</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="32">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="32">
+        <v>2945</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="32">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="32">
+        <v>603956</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="32">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="32">
+        <v>2916</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="32">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="32">
+        <v>601162</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="32">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="32">
+        <v>603160</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="32">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="32">
+        <v>603882</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="32">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="32">
+        <v>661</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="32">
+        <v>600903</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>